--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO150"/>
+  <dimension ref="A1:AO151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G2" t="n">
         <v>1.38</v>
@@ -676,13 +676,13 @@
         <v>9.6</v>
       </c>
       <c r="I2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>7.6</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.23</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G3" t="n">
         <v>4.8</v>
@@ -1213,7 +1213,7 @@
         <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
         <v>2.24</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1750,10 +1750,10 @@
         <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>
@@ -1762,7 +1762,7 @@
         <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1795,10 +1795,10 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -2029,7 +2029,7 @@
         <v>2.96</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2158,16 +2158,16 @@
         <v>2.68</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2176,49 +2176,49 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
         <v>2.18</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W13" t="n">
         <v>1.6</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8</v>
@@ -2227,34 +2227,34 @@
         <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
         <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>34</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="G14" t="n">
-        <v>980</v>
+        <v>1.82</v>
       </c>
       <c r="H14" t="n">
-        <v>1.09</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.28</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2560,13 +2560,13 @@
         <v>1.98</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
         <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J16" t="n">
         <v>3.2</v>
@@ -2587,7 +2587,7 @@
         <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="Q16" t="n">
         <v>1.96</v>
@@ -2596,19 +2596,19 @@
         <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2851,13 +2851,13 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="O18" t="n">
         <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>2.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
         <v>1.15</v>
@@ -3400,7 +3400,7 @@
         <v>2.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
         <v>1.48</v>
@@ -3505,13 +3505,13 @@
         <v>2.54</v>
       </c>
       <c r="G23" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>2.86</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
@@ -3523,91 +3523,91 @@
         <v>1.34</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
         <v>4.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="S23" t="n">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V23" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W23" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="G24" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="I24" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
         <v>4.5</v>
@@ -3658,91 +3658,91 @@
         <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.88</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="W24" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
@@ -3820,7 +3820,7 @@
         <v>1.81</v>
       </c>
       <c r="V25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W25" t="n">
         <v>1.12</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G26" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J26" t="n">
         <v>3.95</v>
       </c>
       <c r="K26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.26</v>
@@ -3937,7 +3937,7 @@
         <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q26" t="n">
         <v>1.51</v>
@@ -3946,10 +3946,10 @@
         <v>1.64</v>
       </c>
       <c r="S26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T26" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U26" t="n">
         <v>2.32</v>
@@ -3958,40 +3958,40 @@
         <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="X26" t="n">
         <v>980</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Z26" t="n">
         <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
         <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
         <v>980</v>
@@ -4000,16 +4000,16 @@
         <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
         <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO26" t="n">
         <v>980</v>
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.51</v>
+        <v>2.74</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
         <v>1.34</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>1.39</v>
+        <v>4.3</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>1.39</v>
+        <v>2.14</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="R27" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>1.65</v>
+        <v>2.78</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V27" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="W27" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
@@ -4186,10 +4186,10 @@
         <v>1.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="J28" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K28" t="n">
         <v>8.199999999999999</v>
@@ -4207,16 +4207,16 @@
         <v>1.15</v>
       </c>
       <c r="P28" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="R28" t="n">
         <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T28" t="n">
         <v>1.69</v>
@@ -4225,7 +4225,7 @@
         <v>1.85</v>
       </c>
       <c r="V28" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="W28" t="n">
         <v>1.08</v>
@@ -4282,7 +4282,7 @@
         <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>5</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G29" t="n">
         <v>2.42</v>
@@ -4336,13 +4336,13 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>1.56</v>
+        <v>1.06</v>
       </c>
       <c r="O29" t="n">
         <v>1.16</v>
       </c>
       <c r="P29" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="Q29" t="n">
         <v>1.58</v>
@@ -4360,7 +4360,7 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W29" t="n">
         <v>1.71</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G30" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H30" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I30" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="J30" t="n">
         <v>3.85</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.31</v>
@@ -4471,13 +4471,13 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O30" t="n">
         <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q30" t="n">
         <v>1.63</v>
@@ -4486,7 +4486,7 @@
         <v>1.54</v>
       </c>
       <c r="S30" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T30" t="n">
         <v>1.57</v>
@@ -4495,10 +4495,10 @@
         <v>2.5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W30" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X30" t="n">
         <v>27</v>
@@ -4519,7 +4519,7 @@
         <v>11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE30" t="n">
         <v>34</v>
@@ -4591,13 +4591,13 @@
         <v>8.6</v>
       </c>
       <c r="I31" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J31" t="n">
         <v>5.3</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4615,22 +4615,22 @@
         <v>2.88</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R31" t="n">
         <v>1.77</v>
       </c>
       <c r="S31" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T31" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V31" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
         <v>3.3</v>
@@ -4651,7 +4651,7 @@
         <v>15.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD31" t="n">
         <v>40</v>
@@ -4660,10 +4660,10 @@
         <v>130</v>
       </c>
       <c r="AF31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG31" t="n">
         <v>13</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
         <v>25</v>
@@ -4672,7 +4672,7 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -4684,7 +4684,7 @@
         <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AO31" t="n">
         <v>110</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G32" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="H32" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="I32" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
         <v>1.33</v>
@@ -4765,10 +4765,10 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4861,7 +4861,7 @@
         <v>1.75</v>
       </c>
       <c r="I33" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J33" t="n">
         <v>3.5</v>
@@ -4900,7 +4900,7 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W33" t="n">
         <v>1.19</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G34" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H34" t="n">
         <v>4.2</v>
       </c>
       <c r="I34" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5011,22 +5011,22 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="T34" t="n">
         <v>1.01</v>
@@ -5038,7 +5038,7 @@
         <v>1.07</v>
       </c>
       <c r="W34" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5146,19 +5146,19 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>2.58</v>
+        <v>1.87</v>
       </c>
       <c r="O35" t="n">
         <v>1.3</v>
       </c>
       <c r="P35" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q35" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q35" t="n">
-        <v>1.81</v>
-      </c>
       <c r="R35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S35" t="n">
         <v>2.98</v>
@@ -5257,58 +5257,58 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="G36" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="H36" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="I36" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="J36" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>2.06</v>
+        <v>4.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="R36" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S36" t="n">
-        <v>2.34</v>
+        <v>2.78</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V36" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="W36" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5395,13 +5395,13 @@
         <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="I37" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J37" t="n">
         <v>5.2</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G41" t="n">
         <v>1.41</v>
       </c>
       <c r="H41" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I41" t="n">
         <v>980</v>
@@ -5947,7 +5947,7 @@
         <v>4.7</v>
       </c>
       <c r="K41" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,22 +5956,22 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O41" t="n">
         <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R41" t="n">
         <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T41" t="n">
         <v>1.01</v>
@@ -6202,112 +6202,112 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H43" t="n">
         <v>2.58</v>
       </c>
       <c r="I43" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L43" t="n">
         <v>1.37</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O43" t="n">
         <v>1.32</v>
       </c>
       <c r="P43" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R43" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S43" t="n">
         <v>3.35</v>
       </c>
       <c r="T43" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W43" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z43" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA43" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AC43" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD43" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE43" t="n">
         <v>980</v>
       </c>
       <c r="AF43" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG43" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AH43" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI43" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AK43" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL43" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN43" t="n">
         <v>980</v>
       </c>
       <c r="AO43" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="44">
@@ -6340,7 +6340,7 @@
         <v>4.3</v>
       </c>
       <c r="G44" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="n">
         <v>1.82</v>
@@ -6349,7 +6349,7 @@
         <v>1.84</v>
       </c>
       <c r="J44" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K44" t="n">
         <v>4.6</v>
@@ -6376,7 +6376,7 @@
         <v>1.55</v>
       </c>
       <c r="S44" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
@@ -6475,13 +6475,13 @@
         <v>1.09</v>
       </c>
       <c r="G45" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="H45" t="n">
-        <v>2.88</v>
+        <v>1.57</v>
       </c>
       <c r="I45" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J45" t="n">
         <v>3.6</v>
@@ -6505,13 +6505,13 @@
         <v>1.58</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="R45" t="n">
         <v>1.58</v>
       </c>
       <c r="S45" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T45" t="n">
         <v>1.01</v>
@@ -6523,7 +6523,7 @@
         <v>1.36</v>
       </c>
       <c r="W45" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6610,10 +6610,10 @@
         <v>1.63</v>
       </c>
       <c r="G46" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I46" t="n">
         <v>5.9</v>
@@ -6622,7 +6622,7 @@
         <v>4.3</v>
       </c>
       <c r="K46" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L46" t="n">
         <v>1.31</v>
@@ -6634,7 +6634,7 @@
         <v>4.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P46" t="n">
         <v>2.24</v>
@@ -6646,10 +6646,10 @@
         <v>1.49</v>
       </c>
       <c r="S46" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T46" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U46" t="n">
         <v>2.12</v>
@@ -6658,10 +6658,10 @@
         <v>1.2</v>
       </c>
       <c r="W46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X46" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y46" t="n">
         <v>26</v>
@@ -6673,7 +6673,7 @@
         <v>160</v>
       </c>
       <c r="AB46" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC46" t="n">
         <v>12.5</v>
@@ -6685,10 +6685,10 @@
         <v>85</v>
       </c>
       <c r="AF46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG46" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
         <v>25</v>
@@ -6703,7 +6703,7 @@
         <v>20</v>
       </c>
       <c r="AL46" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM46" t="n">
         <v>120</v>
@@ -6712,7 +6712,7 @@
         <v>9.6</v>
       </c>
       <c r="AO46" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G48" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="H48" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="I48" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J48" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K48" t="n">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="L48" t="n">
         <v>1.25</v>
@@ -6901,88 +6901,88 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U48" t="n">
         <v>2.3</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V48" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="W48" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="J49" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="K49" t="n">
         <v>3.2</v>
@@ -7033,91 +7033,91 @@
         <v>1.51</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>1.55</v>
+        <v>2.92</v>
       </c>
       <c r="O49" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P49" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="R49" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S49" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V49" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W49" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50">
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G50" t="n">
         <v>3.75</v>
       </c>
       <c r="H50" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I50" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J50" t="n">
         <v>3.25</v>
@@ -7168,34 +7168,34 @@
         <v>1.44</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="O50" t="n">
         <v>1.37</v>
       </c>
       <c r="P50" t="n">
-        <v>1.74</v>
+        <v>1.27</v>
       </c>
       <c r="Q50" t="n">
         <v>1.98</v>
       </c>
       <c r="R50" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S50" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V50" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W50" t="n">
         <v>1.36</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G51" t="n">
         <v>1.73</v>
@@ -7297,7 +7297,7 @@
         <v>3.85</v>
       </c>
       <c r="K51" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L51" t="n">
         <v>1.46</v>
@@ -7318,7 +7318,7 @@
         <v>2.2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S51" t="n">
         <v>4.2</v>
@@ -7327,7 +7327,7 @@
         <v>2.16</v>
       </c>
       <c r="U51" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V51" t="n">
         <v>1.18</v>
@@ -7339,7 +7339,7 @@
         <v>11.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z51" t="n">
         <v>48</v>
@@ -7348,7 +7348,7 @@
         <v>210</v>
       </c>
       <c r="AB51" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC51" t="n">
         <v>8.6</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -7459,7 +7459,7 @@
         <v>4.9</v>
       </c>
       <c r="T52" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U52" t="n">
         <v>1.81</v>
@@ -7480,7 +7480,7 @@
         <v>32</v>
       </c>
       <c r="AA52" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB52" t="n">
         <v>7</v>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G53" t="n">
         <v>5.8</v>
       </c>
-      <c r="G53" t="n">
-        <v>5.9</v>
-      </c>
       <c r="H53" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I53" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="J53" t="n">
         <v>4.4</v>
@@ -7585,7 +7585,7 @@
         <v>2.12</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R53" t="n">
         <v>1.43</v>
@@ -7600,7 +7600,7 @@
         <v>2.04</v>
       </c>
       <c r="V53" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W53" t="n">
         <v>1.2</v>
@@ -7615,7 +7615,7 @@
         <v>9.4</v>
       </c>
       <c r="AA53" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB53" t="n">
         <v>21</v>
@@ -7642,7 +7642,7 @@
         <v>34</v>
       </c>
       <c r="AJ53" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK53" t="n">
         <v>70</v>
@@ -7687,31 +7687,31 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="G54" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H54" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I54" t="n">
         <v>3.6</v>
       </c>
       <c r="J54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K54" t="n">
         <v>3.75</v>
       </c>
       <c r="L54" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M54" t="n">
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O54" t="n">
         <v>1.26</v>
@@ -7720,79 +7720,79 @@
         <v>2.12</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R54" t="n">
         <v>1.45</v>
       </c>
       <c r="S54" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T54" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U54" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V54" t="n">
         <v>1.39</v>
       </c>
       <c r="W54" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X54" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y54" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z54" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA54" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB54" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD54" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AF54" t="n">
         <v>16</v>
       </c>
       <c r="AG54" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH54" t="n">
         <v>15.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ54" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AK54" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AL54" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM54" t="n">
         <v>400</v>
       </c>
       <c r="AN54" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AO54" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -7822,34 +7822,34 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="I55" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K55" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L55" t="n">
         <v>1.56</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>1.48</v>
+        <v>2.76</v>
       </c>
       <c r="O55" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P55" t="n">
         <v>1.48</v>
@@ -7867,13 +7867,13 @@
         <v>1.01</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="V55" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W55" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G56" t="n">
         <v>1.92</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
         <v>6.6</v>
@@ -8098,16 +8098,16 @@
         <v>2.56</v>
       </c>
       <c r="H57" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J57" t="n">
         <v>3.55</v>
       </c>
       <c r="K57" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L57" t="n">
         <v>1.33</v>
@@ -8116,28 +8116,28 @@
         <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O57" t="n">
         <v>1.24</v>
       </c>
       <c r="P57" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R57" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S57" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T57" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U57" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V57" t="n">
         <v>1.48</v>
@@ -8161,16 +8161,16 @@
         <v>13.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD57" t="n">
         <v>13</v>
       </c>
       <c r="AE57" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF57" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG57" t="n">
         <v>11.5</v>
@@ -8194,10 +8194,10 @@
         <v>65</v>
       </c>
       <c r="AN57" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
@@ -8227,46 +8227,46 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.09</v>
+        <v>2.26</v>
       </c>
       <c r="G58" t="n">
-        <v>1000</v>
+        <v>2.52</v>
       </c>
       <c r="H58" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I58" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J58" t="n">
-        <v>1.03</v>
+        <v>3.3</v>
       </c>
       <c r="K58" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L58" t="n">
         <v>1.4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>1.71</v>
+        <v>3.45</v>
       </c>
       <c r="O58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R58" t="n">
         <v>1.32</v>
       </c>
-      <c r="P58" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S58" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="T58" t="n">
         <v>1.01</v>
@@ -8275,10 +8275,10 @@
         <v>1.01</v>
       </c>
       <c r="V58" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="W58" t="n">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8380,7 +8380,7 @@
         <v>3.8</v>
       </c>
       <c r="L59" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M59" t="n">
         <v>1.05</v>
@@ -8395,7 +8395,7 @@
         <v>2.36</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R59" t="n">
         <v>1.55</v>
@@ -8404,7 +8404,7 @@
         <v>2.7</v>
       </c>
       <c r="T59" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U59" t="n">
         <v>2.56</v>
@@ -8647,7 +8647,7 @@
         <v>2.82</v>
       </c>
       <c r="K61" t="n">
-        <v>5.8</v>
+        <v>980</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8656,7 +8656,7 @@
         <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="O61" t="n">
         <v>1.01</v>
@@ -8770,13 +8770,13 @@
         <v>1.94</v>
       </c>
       <c r="G62" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I62" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J62" t="n">
         <v>3.7</v>
@@ -8818,7 +8818,7 @@
         <v>1.3</v>
       </c>
       <c r="W62" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8902,64 +8902,64 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="G63" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="H63" t="n">
-        <v>1.04</v>
+        <v>12.5</v>
       </c>
       <c r="I63" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="J63" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K63" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L63" t="n">
         <v>1.47</v>
       </c>
       <c r="M63" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N63" t="n">
-        <v>1.59</v>
+        <v>2.98</v>
       </c>
       <c r="O63" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P63" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="R63" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="S63" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T63" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="U63" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="V63" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="W63" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y63" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z63" t="n">
         <v>1000</v>
@@ -8968,43 +8968,43 @@
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC63" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE63" t="n">
         <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH63" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI63" t="n">
         <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK63" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL63" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM63" t="n">
         <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G64" t="n">
         <v>1.73</v>
@@ -9061,16 +9061,16 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O64" t="n">
         <v>1.01</v>
       </c>
       <c r="P64" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R64" t="n">
         <v>1.17</v>
@@ -9445,16 +9445,16 @@
         <v>3.3</v>
       </c>
       <c r="G67" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I67" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="J67" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K67" t="n">
         <v>3.25</v>
@@ -9463,91 +9463,91 @@
         <v>1.51</v>
       </c>
       <c r="M67" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N67" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O67" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P67" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R67" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S67" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="T67" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U67" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="V67" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W67" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X67" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB67" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF67" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG67" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL67" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM67" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN67" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="68">
@@ -9715,16 +9715,16 @@
         <v>3.3</v>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="H69" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="I69" t="n">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="J69" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="K69" t="n">
         <v>3.45</v>
@@ -9733,91 +9733,91 @@
         <v>1.48</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="O69" t="n">
         <v>1.41</v>
       </c>
       <c r="P69" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.41</v>
+        <v>1.97</v>
       </c>
       <c r="R69" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S69" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U69" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V69" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="W69" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="X69" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y69" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z69" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA69" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB69" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC69" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD69" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE69" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF69" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG69" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH69" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI69" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK69" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL69" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM69" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN69" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO69" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="70">
@@ -9847,23 +9847,23 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H70" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I70" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K70" t="n">
         <v>4.8</v>
       </c>
-      <c r="J70" t="n">
-        <v>3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>980</v>
-      </c>
       <c r="L70" t="n">
         <v>1.01</v>
       </c>
@@ -9871,22 +9871,22 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O70" t="n">
         <v>1.01</v>
       </c>
       <c r="P70" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q70" t="n">
         <v>2.02</v>
       </c>
       <c r="R70" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S70" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9895,10 +9895,10 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W70" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -9982,112 +9982,112 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="G71" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="H71" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="I71" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K71" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="L71" t="n">
         <v>1.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N71" t="n">
-        <v>1.54</v>
+        <v>2.8</v>
       </c>
       <c r="O71" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P71" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R71" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S71" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T71" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U71" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V71" t="n">
         <v>2</v>
       </c>
       <c r="W71" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="X71" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y71" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z71" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB71" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD71" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE71" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF71" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG71" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH71" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI71" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK71" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL71" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM71" t="n">
         <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO71" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
@@ -10120,16 +10120,16 @@
         <v>1.04</v>
       </c>
       <c r="G72" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="H72" t="n">
         <v>1.22</v>
       </c>
       <c r="I72" t="n">
-        <v>1000</v>
+        <v>1.38</v>
       </c>
       <c r="J72" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="K72" t="n">
         <v>1000</v>
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G73" t="n">
         <v>2.28</v>
@@ -10267,7 +10267,7 @@
         <v>3.65</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L73" t="n">
         <v>1.29</v>
@@ -10282,22 +10282,22 @@
         <v>1.21</v>
       </c>
       <c r="P73" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R73" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="S73" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="T73" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U73" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V73" t="n">
         <v>1.37</v>
@@ -10306,58 +10306,58 @@
         <v>1.78</v>
       </c>
       <c r="X73" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y73" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z73" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA73" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB73" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC73" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD73" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF73" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG73" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK73" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL73" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM73" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN73" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO73" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="G74" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="H74" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I74" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="J74" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K74" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L74" t="n">
         <v>1.46</v>
@@ -10411,34 +10411,34 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O74" t="n">
         <v>1.39</v>
       </c>
       <c r="P74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W74" t="n">
         <v>1.64</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S74" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U74" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V74" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W74" t="n">
-        <v>1.54</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10690,13 +10690,13 @@
         <v>2.36</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="R76" t="n">
         <v>1.53</v>
       </c>
       <c r="S76" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="T76" t="n">
         <v>2.18</v>
@@ -10795,10 +10795,10 @@
         <v>2.56</v>
       </c>
       <c r="G77" t="n">
-        <v>1000</v>
+        <v>2.74</v>
       </c>
       <c r="H77" t="n">
-        <v>1.34</v>
+        <v>2.66</v>
       </c>
       <c r="I77" t="n">
         <v>2.86</v>
@@ -10807,7 +10807,7 @@
         <v>3.7</v>
       </c>
       <c r="K77" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L77" t="n">
         <v>1.32</v>
@@ -10948,7 +10948,7 @@
         <v>1.35</v>
       </c>
       <c r="M78" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N78" t="n">
         <v>4.2</v>
@@ -10975,10 +10975,10 @@
         <v>2.18</v>
       </c>
       <c r="V78" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="W78" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="X78" t="n">
         <v>22</v>
@@ -11086,28 +11086,28 @@
         <v>1.05</v>
       </c>
       <c r="N79" t="n">
-        <v>2.12</v>
+        <v>4.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P79" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="R79" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S79" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="T79" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U79" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V79" t="n">
         <v>1.5</v>
@@ -11116,58 +11116,58 @@
         <v>1.61</v>
       </c>
       <c r="X79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y79" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z79" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB79" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD79" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG79" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM79" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN79" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -11737,22 +11737,22 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G84" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="H84" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I84" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J84" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K84" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L84" t="n">
         <v>1.43</v>
@@ -11761,22 +11761,22 @@
         <v>1.08</v>
       </c>
       <c r="N84" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O84" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P84" t="n">
         <v>1.9</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R84" t="n">
         <v>1.34</v>
       </c>
       <c r="S84" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T84" t="n">
         <v>1.94</v>
@@ -11788,13 +11788,13 @@
         <v>1.22</v>
       </c>
       <c r="W84" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="X84" t="n">
         <v>13.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z84" t="n">
         <v>40</v>
@@ -11803,10 +11803,10 @@
         <v>130</v>
       </c>
       <c r="AB84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC84" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>8.4</v>
       </c>
       <c r="AD84" t="n">
         <v>20</v>
@@ -11827,7 +11827,7 @@
         <v>80</v>
       </c>
       <c r="AJ84" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK84" t="n">
         <v>19.5</v>
@@ -11839,10 +11839,10 @@
         <v>130</v>
       </c>
       <c r="AN84" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
@@ -11881,10 +11881,10 @@
         <v>7.2</v>
       </c>
       <c r="I85" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J85" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K85" t="n">
         <v>4.9</v>
@@ -11908,22 +11908,22 @@
         <v>1.74</v>
       </c>
       <c r="R85" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S85" t="n">
         <v>2.88</v>
       </c>
       <c r="T85" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U85" t="n">
         <v>2.02</v>
       </c>
       <c r="V85" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W85" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="X85" t="n">
         <v>19.5</v>
@@ -11959,7 +11959,7 @@
         <v>23</v>
       </c>
       <c r="AI85" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ85" t="n">
         <v>13.5</v>
@@ -12007,16 +12007,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I86" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J86" t="n">
         <v>3.55</v>
@@ -12034,10 +12034,10 @@
         <v>3.6</v>
       </c>
       <c r="O86" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P86" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q86" t="n">
         <v>2.06</v>
@@ -12046,19 +12046,19 @@
         <v>1.34</v>
       </c>
       <c r="S86" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T86" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U86" t="n">
         <v>2.06</v>
       </c>
       <c r="V86" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W86" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X86" t="n">
         <v>13.5</v>
@@ -12106,10 +12106,10 @@
         <v>40</v>
       </c>
       <c r="AM86" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN86" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO86" t="n">
         <v>60</v>
@@ -12142,16 +12142,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G87" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H87" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J87" t="n">
         <v>3</v>
@@ -12166,16 +12166,16 @@
         <v>1.1</v>
       </c>
       <c r="N87" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O87" t="n">
         <v>1.54</v>
       </c>
       <c r="P87" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R87" t="n">
         <v>1.19</v>
@@ -12184,16 +12184,16 @@
         <v>5.4</v>
       </c>
       <c r="T87" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="U87" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="V87" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W87" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X87" t="n">
         <v>10.5</v>
@@ -12208,7 +12208,7 @@
         <v>140</v>
       </c>
       <c r="AB87" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC87" t="n">
         <v>8.6</v>
@@ -12223,7 +12223,7 @@
         <v>15</v>
       </c>
       <c r="AG87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH87" t="n">
         <v>30</v>
@@ -12232,16 +12232,16 @@
         <v>120</v>
       </c>
       <c r="AJ87" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK87" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL87" t="n">
         <v>65</v>
       </c>
       <c r="AM87" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN87" t="n">
         <v>38</v>
@@ -12547,16 +12547,16 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G90" t="n">
         <v>1.56</v>
       </c>
       <c r="H90" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I90" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J90" t="n">
         <v>4.9</v>
@@ -12571,34 +12571,34 @@
         <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O90" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P90" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q90" t="n">
         <v>1.6</v>
       </c>
       <c r="R90" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S90" t="n">
         <v>2.48</v>
       </c>
       <c r="T90" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U90" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="V90" t="n">
         <v>1.17</v>
       </c>
       <c r="W90" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X90" t="n">
         <v>25</v>
@@ -12610,7 +12610,7 @@
         <v>50</v>
       </c>
       <c r="AA90" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AB90" t="n">
         <v>11.5</v>
@@ -12652,7 +12652,7 @@
         <v>6.2</v>
       </c>
       <c r="AO90" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91">
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G91" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H91" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I91" t="n">
         <v>2.48</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2.5</v>
       </c>
       <c r="J91" t="n">
         <v>3.85</v>
@@ -12727,10 +12727,10 @@
         <v>1.54</v>
       </c>
       <c r="U91" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="V91" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W91" t="n">
         <v>1.51</v>
@@ -13090,40 +13090,40 @@
         <v>2.4</v>
       </c>
       <c r="G94" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H94" t="n">
         <v>3.2</v>
       </c>
       <c r="I94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K94" t="n">
         <v>3.55</v>
       </c>
-      <c r="J94" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K94" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L94" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M94" t="n">
         <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O94" t="n">
         <v>1.32</v>
       </c>
       <c r="P94" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="R94" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S94" t="n">
         <v>3.1</v>
@@ -13132,13 +13132,13 @@
         <v>1.62</v>
       </c>
       <c r="U94" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V94" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W94" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X94" t="n">
         <v>17</v>
@@ -13186,7 +13186,7 @@
         <v>980</v>
       </c>
       <c r="AM94" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN94" t="n">
         <v>980</v>
@@ -13273,7 +13273,7 @@
         <v>1.27</v>
       </c>
       <c r="W95" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="X95" t="n">
         <v>1000</v>
@@ -13366,16 +13366,16 @@
         <v>2.16</v>
       </c>
       <c r="I96" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J96" t="n">
         <v>3.2</v>
       </c>
       <c r="K96" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L96" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M96" t="n">
         <v>1.12</v>
@@ -13396,19 +13396,19 @@
         <v>1.22</v>
       </c>
       <c r="S96" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T96" t="n">
         <v>2.14</v>
       </c>
       <c r="U96" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V96" t="n">
         <v>1.84</v>
       </c>
       <c r="W96" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X96" t="n">
         <v>8.800000000000001</v>
@@ -13492,10 +13492,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="G97" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H97" t="n">
         <v>4.3</v>
@@ -13516,88 +13516,88 @@
         <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>2.42</v>
+        <v>5.3</v>
       </c>
       <c r="O97" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P97" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="R97" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="S97" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="T97" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U97" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V97" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W97" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X97" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y97" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z97" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA97" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB97" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC97" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD97" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE97" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF97" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG97" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH97" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI97" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ97" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK97" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL97" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM97" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN97" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO97" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98">
@@ -13675,7 +13675,7 @@
         <v>1.01</v>
       </c>
       <c r="V98" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W98" t="n">
         <v>1.32</v>
@@ -13903,13 +13903,13 @@
         <v>1000</v>
       </c>
       <c r="H100" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="I100" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J100" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="K100" t="n">
         <v>950</v>
@@ -13921,7 +13921,7 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>1.81</v>
+        <v>2.72</v>
       </c>
       <c r="O100" t="n">
         <v>1.3</v>
@@ -14032,22 +14032,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="G101" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="H101" t="n">
         <v>1.24</v>
       </c>
       <c r="I101" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="J101" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K101" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L101" t="n">
         <v>1.28</v>
@@ -14056,67 +14056,67 @@
         <v>1.03</v>
       </c>
       <c r="N101" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="O101" t="n">
         <v>1.19</v>
       </c>
       <c r="P101" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="R101" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S101" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T101" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U101" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V101" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="W101" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X101" t="n">
         <v>980</v>
       </c>
       <c r="Y101" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z101" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AA101" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AB101" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AC101" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AD101" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE101" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AF101" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AG101" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AH101" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AI101" t="n">
         <v>980</v>
@@ -14125,19 +14125,19 @@
         <v>1000</v>
       </c>
       <c r="AK101" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AL101" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM101" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN101" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AO101" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="102">
@@ -14212,7 +14212,7 @@
         <v>1.72</v>
       </c>
       <c r="U102" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V102" t="n">
         <v>1.46</v>
@@ -14308,13 +14308,13 @@
         <v>1.9</v>
       </c>
       <c r="H103" t="n">
-        <v>1.09</v>
+        <v>5.5</v>
       </c>
       <c r="I103" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J103" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="K103" t="n">
         <v>980</v>
@@ -14326,13 +14326,13 @@
         <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O103" t="n">
         <v>1.35</v>
       </c>
       <c r="P103" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Q103" t="n">
         <v>1.92</v>
@@ -14467,16 +14467,16 @@
         <v>1.25</v>
       </c>
       <c r="P104" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q104" t="n">
         <v>1.25</v>
       </c>
       <c r="R104" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S104" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="T104" t="n">
         <v>1.01</v>
@@ -14572,19 +14572,19 @@
         </is>
       </c>
       <c r="F105" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.04</v>
       </c>
-      <c r="G105" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1.96</v>
-      </c>
       <c r="I105" t="n">
         <v>1000</v>
       </c>
       <c r="J105" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="K105" t="n">
         <v>1000</v>
@@ -14596,16 +14596,16 @@
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O105" t="n">
         <v>1.36</v>
       </c>
       <c r="P105" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R105" t="n">
         <v>1.23</v>
@@ -14620,10 +14620,10 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="W105" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X105" t="n">
         <v>1000</v>
@@ -14872,22 +14872,22 @@
         <v>1.29</v>
       </c>
       <c r="P107" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q107" t="n">
         <v>1.89</v>
       </c>
       <c r="R107" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S107" t="n">
         <v>3.3</v>
       </c>
       <c r="T107" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U107" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="V107" t="n">
         <v>1.11</v>
@@ -14989,7 +14989,7 @@
         <v>3.5</v>
       </c>
       <c r="J108" t="n">
-        <v>1.09</v>
+        <v>2.5</v>
       </c>
       <c r="K108" t="n">
         <v>5.2</v>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G109" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="H109" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="I109" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J109" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K109" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L109" t="n">
         <v>1.26</v>
@@ -15136,7 +15136,7 @@
         <v>1.03</v>
       </c>
       <c r="N109" t="n">
-        <v>2.28</v>
+        <v>4.6</v>
       </c>
       <c r="O109" t="n">
         <v>1.17</v>
@@ -15163,52 +15163,52 @@
         <v>1.15</v>
       </c>
       <c r="W109" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="X109" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y109" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z109" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA109" t="n">
         <v>1000</v>
       </c>
       <c r="AB109" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC109" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD109" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE109" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF109" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG109" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH109" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI109" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ109" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK109" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL109" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM109" t="n">
         <v>1000</v>
@@ -15259,7 +15259,7 @@
         <v>3.8</v>
       </c>
       <c r="J110" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="K110" t="n">
         <v>5.4</v>
@@ -15391,10 +15391,10 @@
         <v>1.04</v>
       </c>
       <c r="I111" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="J111" t="n">
-        <v>1.81</v>
+        <v>3.25</v>
       </c>
       <c r="K111" t="n">
         <v>4</v>
@@ -15430,7 +15430,7 @@
         <v>1.01</v>
       </c>
       <c r="V111" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W111" t="n">
         <v>1.8</v>
@@ -15676,19 +15676,19 @@
         <v>1.03</v>
       </c>
       <c r="N113" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O113" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P113" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="R113" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="S113" t="n">
         <v>2.4</v>
@@ -15790,16 +15790,16 @@
         <v>3.6</v>
       </c>
       <c r="G114" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="H114" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="I114" t="n">
         <v>4.6</v>
       </c>
       <c r="J114" t="n">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="K114" t="n">
         <v>1000</v>
@@ -15835,10 +15835,10 @@
         <v>1.01</v>
       </c>
       <c r="V114" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W114" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="X114" t="n">
         <v>1000</v>
@@ -15922,112 +15922,112 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G115" t="n">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
-        <v>1.09</v>
+        <v>2.82</v>
       </c>
       <c r="I115" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K115" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J115" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K115" t="n">
-        <v>980</v>
       </c>
       <c r="L115" t="n">
         <v>1.56</v>
       </c>
       <c r="M115" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N115" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O115" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P115" t="n">
         <v>1.58</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.51</v>
+        <v>2.48</v>
       </c>
       <c r="R115" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S115" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="T115" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U115" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V115" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W115" t="n">
         <v>1.47</v>
       </c>
-      <c r="W115" t="n">
-        <v>1.46</v>
-      </c>
       <c r="X115" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y115" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z115" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA115" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB115" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC115" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD115" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE115" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF115" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG115" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH115" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI115" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK115" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL115" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM115" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN115" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO115" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="116">
@@ -16057,112 +16057,112 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="G116" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H116" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="I116" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J116" t="n">
         <v>3</v>
       </c>
-      <c r="J116" t="n">
-        <v>2.86</v>
-      </c>
       <c r="K116" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="L116" t="n">
         <v>1.59</v>
       </c>
       <c r="M116" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N116" t="n">
-        <v>1.46</v>
+        <v>2.58</v>
       </c>
       <c r="O116" t="n">
         <v>1.56</v>
       </c>
       <c r="P116" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.56</v>
+        <v>2.62</v>
       </c>
       <c r="R116" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S116" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="T116" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U116" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V116" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="W116" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X116" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y116" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z116" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA116" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB116" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC116" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD116" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE116" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF116" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG116" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH116" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI116" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ116" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK116" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL116" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM116" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN116" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO116" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117">
@@ -16195,7 +16195,7 @@
         <v>2.92</v>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H117" t="n">
         <v>2.9</v>
@@ -16240,7 +16240,7 @@
         <v>1.64</v>
       </c>
       <c r="V117" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W117" t="n">
         <v>1.5</v>
@@ -16255,7 +16255,7 @@
         <v>980</v>
       </c>
       <c r="AA117" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB117" t="n">
         <v>8.6</v>
@@ -16276,19 +16276,19 @@
         <v>14.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI117" t="n">
         <v>90</v>
       </c>
       <c r="AJ117" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK117" t="n">
         <v>60</v>
       </c>
-      <c r="AK117" t="n">
-        <v>48</v>
-      </c>
       <c r="AL117" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AM117" t="n">
         <v>230</v>
@@ -16297,7 +16297,7 @@
         <v>75</v>
       </c>
       <c r="AO117" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118">
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="G118" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="H118" t="n">
-        <v>1.09</v>
+        <v>1.87</v>
       </c>
       <c r="I118" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="J118" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K118" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L118" t="n">
         <v>1.28</v>
@@ -16360,7 +16360,7 @@
         <v>2.14</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R118" t="n">
         <v>1.45</v>
@@ -16375,10 +16375,10 @@
         <v>1.01</v>
       </c>
       <c r="V118" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="W118" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="X118" t="n">
         <v>1000</v>
@@ -16468,106 +16468,106 @@
         <v>3.45</v>
       </c>
       <c r="H119" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="I119" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="J119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K119" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K119" t="n">
-        <v>3.7</v>
       </c>
       <c r="L119" t="n">
         <v>1.35</v>
       </c>
       <c r="M119" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N119" t="n">
-        <v>1.88</v>
+        <v>4</v>
       </c>
       <c r="O119" t="n">
         <v>1.26</v>
       </c>
       <c r="P119" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R119" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S119" t="n">
-        <v>1.75</v>
+        <v>2.98</v>
       </c>
       <c r="T119" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U119" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V119" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W119" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X119" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y119" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z119" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA119" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB119" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC119" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD119" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG119" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH119" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ119" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL119" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM119" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN119" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO119" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="120">
@@ -16597,31 +16597,31 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="G120" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="H120" t="n">
-        <v>10.5</v>
+        <v>1.04</v>
       </c>
       <c r="I120" t="n">
         <v>980</v>
       </c>
       <c r="J120" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="K120" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="L120" t="n">
         <v>1.01</v>
       </c>
       <c r="M120" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N120" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="O120" t="n">
         <v>1.24</v>
@@ -16630,25 +16630,25 @@
         <v>1.96</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R120" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="S120" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T120" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="U120" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="V120" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="W120" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="X120" t="n">
         <v>1000</v>
@@ -16747,7 +16747,7 @@
         <v>2.84</v>
       </c>
       <c r="K121" t="n">
-        <v>5.5</v>
+        <v>980</v>
       </c>
       <c r="L121" t="n">
         <v>1.01</v>
@@ -16771,7 +16771,7 @@
         <v>1.18</v>
       </c>
       <c r="S121" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T121" t="n">
         <v>1.01</v>
@@ -17011,7 +17011,7 @@
         <v>2.3</v>
       </c>
       <c r="I123" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J123" t="n">
         <v>3.6</v>
@@ -17032,13 +17032,13 @@
         <v>1.27</v>
       </c>
       <c r="P123" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R123" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S123" t="n">
         <v>3</v>
@@ -17050,7 +17050,7 @@
         <v>2.34</v>
       </c>
       <c r="V123" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W123" t="n">
         <v>1.41</v>
@@ -17062,7 +17062,7 @@
         <v>12</v>
       </c>
       <c r="Z123" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA123" t="n">
         <v>30</v>
@@ -17101,10 +17101,10 @@
         <v>1000</v>
       </c>
       <c r="AM123" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN123" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO123" t="n">
         <v>16</v>
@@ -17143,7 +17143,7 @@
         <v>2.3</v>
       </c>
       <c r="H124" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I124" t="n">
         <v>3.95</v>
@@ -17155,7 +17155,7 @@
         <v>3.3</v>
       </c>
       <c r="L124" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M124" t="n">
         <v>1.11</v>
@@ -17164,13 +17164,13 @@
         <v>3.05</v>
       </c>
       <c r="O124" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P124" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R124" t="n">
         <v>1.26</v>
@@ -17179,16 +17179,16 @@
         <v>4.7</v>
       </c>
       <c r="T124" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U124" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V124" t="n">
         <v>1.34</v>
       </c>
       <c r="W124" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="X124" t="n">
         <v>9.800000000000001</v>
@@ -17383,7 +17383,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -17398,127 +17398,127 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F126" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H126" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I126" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K126" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L126" t="n">
         <v>1.5</v>
       </c>
-      <c r="G126" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H126" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I126" t="n">
-        <v>8</v>
-      </c>
-      <c r="J126" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K126" t="n">
-        <v>5</v>
-      </c>
-      <c r="L126" t="n">
-        <v>1.4</v>
-      </c>
       <c r="M126" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N126" t="n">
-        <v>1.88</v>
+        <v>2.84</v>
       </c>
       <c r="O126" t="n">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="P126" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="R126" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="S126" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="T126" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="U126" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="V126" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W126" t="n">
-        <v>2.76</v>
+        <v>2.3</v>
       </c>
       <c r="X126" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Y126" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z126" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AA126" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB126" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC126" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD126" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE126" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AF126" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AG126" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH126" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI126" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AJ126" t="n">
         <v>980</v>
       </c>
       <c r="AK126" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL126" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AM126" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN126" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO126" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -17533,127 +17533,127 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Univ Catolica (Chile)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="L127" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M127" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N127" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="O127" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P127" t="n">
-        <v>1.24</v>
+        <v>1.77</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.38</v>
+        <v>1.92</v>
       </c>
       <c r="R127" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S127" t="n">
-        <v>1.38</v>
+        <v>3.4</v>
       </c>
       <c r="T127" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U127" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V127" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W127" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="X127" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y127" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z127" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA127" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB127" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC127" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD127" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE127" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF127" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG127" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH127" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI127" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ127" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK127" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL127" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM127" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN127" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO127" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -17668,112 +17668,112 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="G128" t="n">
-        <v>1.79</v>
+        <v>2.56</v>
       </c>
       <c r="H128" t="n">
-        <v>6.6</v>
+        <v>3.45</v>
       </c>
       <c r="I128" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="J128" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K128" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L128" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M128" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N128" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O128" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="P128" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="R128" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S128" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="T128" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="U128" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="V128" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="W128" t="n">
-        <v>2.26</v>
+        <v>1.58</v>
       </c>
       <c r="X128" t="n">
         <v>1000</v>
       </c>
       <c r="Y128" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z128" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA128" t="n">
         <v>1000</v>
       </c>
       <c r="AB128" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC128" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD128" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE128" t="n">
         <v>1000</v>
       </c>
       <c r="AF128" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG128" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH128" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI128" t="n">
         <v>1000</v>
       </c>
       <c r="AJ128" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK128" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL128" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM128" t="n">
         <v>1000</v>
@@ -17788,7 +17788,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -17803,34 +17803,34 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Univ Catolica (Chile)</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>OHiggins</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M129" t="n">
         <v>1.01</v>
@@ -17839,19 +17839,19 @@
         <v>1.25</v>
       </c>
       <c r="O129" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P129" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="R129" t="n">
         <v>1.18</v>
       </c>
       <c r="S129" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="T129" t="n">
         <v>1.01</v>
@@ -17860,10 +17860,10 @@
         <v>1.01</v>
       </c>
       <c r="V129" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W129" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="X129" t="n">
         <v>1000</v>
@@ -17923,7 +17923,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -17938,121 +17938,121 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G130" t="n">
-        <v>2.72</v>
+        <v>1.57</v>
       </c>
       <c r="H130" t="n">
-        <v>1.58</v>
+        <v>6.8</v>
       </c>
       <c r="I130" t="n">
+        <v>8</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K130" t="n">
         <v>5</v>
       </c>
-      <c r="J130" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K130" t="n">
+      <c r="L130" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S130" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W130" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="X130" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC130" t="n">
         <v>980</v>
       </c>
-      <c r="L130" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M130" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N130" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="O130" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P130" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R130" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S130" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T130" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U130" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V130" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W130" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD130" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE130" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF130" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG130" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH130" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI130" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ130" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK130" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL130" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM130" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN130" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO130" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131">
@@ -18073,34 +18073,34 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="G131" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="H131" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="I131" t="n">
         <v>1000</v>
       </c>
       <c r="J131" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="K131" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L131" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="M131" t="n">
         <v>1.01</v>
@@ -18115,13 +18115,13 @@
         <v>1.25</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="R131" t="n">
         <v>1.12</v>
       </c>
       <c r="S131" t="n">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="T131" t="n">
         <v>1.01</v>
@@ -18130,40 +18130,40 @@
         <v>1.01</v>
       </c>
       <c r="V131" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="W131" t="n">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="X131" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y131" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Z131" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AA131" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AB131" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC131" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD131" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE131" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF131" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG131" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH131" t="n">
         <v>32</v>
@@ -18172,22 +18172,22 @@
         <v>140</v>
       </c>
       <c r="AJ131" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AK131" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL131" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM131" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AN131" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AO131" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
@@ -18208,40 +18208,40 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="G132" t="n">
-        <v>2.08</v>
+        <v>3.65</v>
       </c>
       <c r="H132" t="n">
-        <v>4.1</v>
+        <v>1.54</v>
       </c>
       <c r="I132" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="J132" t="n">
-        <v>3.2</v>
+        <v>1.41</v>
       </c>
       <c r="K132" t="n">
-        <v>3.25</v>
+        <v>980</v>
       </c>
       <c r="L132" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="M132" t="n">
         <v>1.01</v>
       </c>
       <c r="N132" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="O132" t="n">
         <v>1.01</v>
@@ -18250,7 +18250,7 @@
         <v>1.25</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.02</v>
+        <v>1.48</v>
       </c>
       <c r="R132" t="n">
         <v>1.12</v>
@@ -18265,64 +18265,64 @@
         <v>1.01</v>
       </c>
       <c r="V132" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W132" t="n">
-        <v>1.93</v>
+        <v>1.37</v>
       </c>
       <c r="X132" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y132" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z132" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA132" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB132" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC132" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD132" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE132" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF132" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG132" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH132" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI132" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ132" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK132" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL132" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM132" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AN132" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO132" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="133">
@@ -18343,40 +18343,40 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>3.05</v>
+        <v>1.88</v>
       </c>
       <c r="G133" t="n">
-        <v>3.65</v>
+        <v>2.06</v>
       </c>
       <c r="H133" t="n">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="I133" t="n">
         <v>1000</v>
       </c>
       <c r="J133" t="n">
-        <v>1.38</v>
+        <v>2.06</v>
       </c>
       <c r="K133" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="L133" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M133" t="n">
         <v>1.01</v>
       </c>
       <c r="N133" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="O133" t="n">
         <v>1.01</v>
@@ -18385,13 +18385,13 @@
         <v>1.25</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R133" t="n">
         <v>1.12</v>
       </c>
       <c r="S133" t="n">
-        <v>1.02</v>
+        <v>1.52</v>
       </c>
       <c r="T133" t="n">
         <v>1.01</v>
@@ -18400,70 +18400,70 @@
         <v>1.01</v>
       </c>
       <c r="V133" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="W133" t="n">
-        <v>1.37</v>
+        <v>1.94</v>
       </c>
       <c r="X133" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y133" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z133" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA133" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB133" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC133" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD133" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE133" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF133" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG133" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH133" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI133" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ133" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK133" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL133" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM133" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN133" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO133" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -18478,55 +18478,55 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Orense Sporting Club</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="H134" t="n">
-        <v>1.04</v>
+        <v>4.6</v>
       </c>
       <c r="I134" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="J134" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="K134" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L134" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="M134" t="n">
         <v>1.01</v>
       </c>
       <c r="N134" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="O134" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P134" t="n">
         <v>1.25</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="R134" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="S134" t="n">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="T134" t="n">
         <v>1.01</v>
@@ -18535,64 +18535,64 @@
         <v>1.01</v>
       </c>
       <c r="V134" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="W134" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="X134" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y134" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z134" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA134" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB134" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC134" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD134" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE134" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF134" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG134" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH134" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI134" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ134" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK134" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL134" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM134" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AN134" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO134" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135">
@@ -18613,40 +18613,40 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="G135" t="n">
-        <v>2.36</v>
+        <v>1000</v>
       </c>
       <c r="H135" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="I135" t="n">
         <v>1000</v>
       </c>
       <c r="J135" t="n">
-        <v>1.81</v>
+        <v>2.88</v>
       </c>
       <c r="K135" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="L135" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="M135" t="n">
         <v>1.01</v>
       </c>
       <c r="N135" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="O135" t="n">
         <v>1.01</v>
@@ -18670,64 +18670,64 @@
         <v>1.01</v>
       </c>
       <c r="V135" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W135" t="n">
-        <v>1.73</v>
+        <v>1.34</v>
       </c>
       <c r="X135" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB135" t="n">
         <v>9</v>
       </c>
-      <c r="Y135" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z135" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA135" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB135" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AC135" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD135" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE135" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI135" t="n">
         <v>120</v>
       </c>
-      <c r="AF135" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH135" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>180</v>
-      </c>
       <c r="AJ135" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AK135" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL135" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM135" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="AN135" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AO135" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136">
@@ -18781,7 +18781,7 @@
         <v>1.01</v>
       </c>
       <c r="N136" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="O136" t="n">
         <v>1.01</v>
@@ -18802,7 +18802,7 @@
         <v>2.24</v>
       </c>
       <c r="U136" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V136" t="n">
         <v>1.73</v>
@@ -18826,7 +18826,7 @@
         <v>11</v>
       </c>
       <c r="AC136" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD136" t="n">
         <v>17.5</v>
@@ -18838,7 +18838,7 @@
         <v>980</v>
       </c>
       <c r="AG136" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AH136" t="n">
         <v>55</v>
@@ -18853,10 +18853,10 @@
         <v>140</v>
       </c>
       <c r="AL136" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AM136" t="n">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="AN136" t="n">
         <v>1000</v>
@@ -18883,40 +18883,40 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="G137" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="H137" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="I137" t="n">
         <v>1000</v>
       </c>
       <c r="J137" t="n">
-        <v>2.88</v>
+        <v>1.48</v>
       </c>
       <c r="K137" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="L137" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="M137" t="n">
         <v>1.01</v>
       </c>
       <c r="N137" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="O137" t="n">
         <v>1.01</v>
@@ -18940,64 +18940,64 @@
         <v>1.01</v>
       </c>
       <c r="V137" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W137" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="X137" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y137" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z137" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA137" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB137" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC137" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD137" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE137" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF137" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG137" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH137" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI137" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ137" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK137" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL137" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM137" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN137" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO137" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="138">
@@ -19018,28 +19018,28 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1.5</v>
+        <v>2.42</v>
       </c>
       <c r="G138" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="I138" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J138" t="n">
-        <v>1.46</v>
+        <v>3</v>
       </c>
       <c r="K138" t="n">
         <v>3.2</v>
@@ -19048,91 +19048,91 @@
         <v>1.63</v>
       </c>
       <c r="M138" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N138" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O138" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="P138" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.02</v>
+        <v>2.88</v>
       </c>
       <c r="R138" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S138" t="n">
-        <v>1.02</v>
+        <v>6.4</v>
       </c>
       <c r="T138" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U138" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V138" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W138" t="n">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="X138" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y138" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z138" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA138" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB138" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC138" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD138" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE138" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF138" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG138" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI138" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ138" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK138" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL138" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM138" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN138" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO138" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139">
@@ -19153,127 +19153,127 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="G139" t="n">
-        <v>2.58</v>
+        <v>980</v>
       </c>
       <c r="H139" t="n">
-        <v>3.65</v>
+        <v>1.25</v>
       </c>
       <c r="I139" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="J139" t="n">
-        <v>2.92</v>
+        <v>1.17</v>
       </c>
       <c r="K139" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="L139" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="M139" t="n">
         <v>1.01</v>
       </c>
       <c r="N139" t="n">
-        <v>2.38</v>
+        <v>1.03</v>
       </c>
       <c r="O139" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="P139" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.88</v>
+        <v>1.15</v>
       </c>
       <c r="R139" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="S139" t="n">
-        <v>6</v>
+        <v>1.02</v>
       </c>
       <c r="T139" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U139" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="V139" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="W139" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="X139" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y139" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z139" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA139" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB139" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC139" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD139" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE139" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF139" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG139" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH139" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI139" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ139" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK139" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL139" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM139" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN139" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO139" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -19283,60 +19283,60 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:15:00</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="G140" t="n">
-        <v>980</v>
+        <v>2.26</v>
       </c>
       <c r="H140" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="I140" t="n">
         <v>1000</v>
       </c>
       <c r="J140" t="n">
-        <v>1.11</v>
+        <v>1.8</v>
       </c>
       <c r="K140" t="n">
         <v>1000</v>
       </c>
       <c r="L140" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="M140" t="n">
         <v>1.01</v>
       </c>
       <c r="N140" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="O140" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P140" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.06</v>
+        <v>1.76</v>
       </c>
       <c r="R140" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="S140" t="n">
-        <v>1.02</v>
+        <v>1.78</v>
       </c>
       <c r="T140" t="n">
         <v>1.01</v>
@@ -19345,10 +19345,10 @@
         <v>1.01</v>
       </c>
       <c r="V140" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W140" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="X140" t="n">
         <v>1000</v>
@@ -19408,7 +19408,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -19418,132 +19418,132 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>San Martin de San Juan</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="G141" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="H141" t="n">
-        <v>1.79</v>
+        <v>4.3</v>
       </c>
       <c r="I141" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J141" t="n">
-        <v>1.8</v>
+        <v>2.86</v>
       </c>
       <c r="K141" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="L141" t="n">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="M141" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N141" t="n">
-        <v>1.76</v>
+        <v>2.24</v>
       </c>
       <c r="O141" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="P141" t="n">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.76</v>
+        <v>3.1</v>
       </c>
       <c r="R141" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S141" t="n">
-        <v>1.78</v>
+        <v>6.8</v>
       </c>
       <c r="T141" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="U141" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="V141" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W141" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="X141" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="Y141" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z141" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA141" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB141" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC141" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD141" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE141" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF141" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG141" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH141" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI141" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ141" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK141" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL141" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM141" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AN141" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO141" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -19553,132 +19553,132 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="G142" t="n">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="H142" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="I142" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J142" t="n">
-        <v>2.86</v>
+        <v>1.01</v>
       </c>
       <c r="K142" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="L142" t="n">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="M142" t="n">
         <v>1.01</v>
       </c>
       <c r="N142" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="O142" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P142" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q142" t="n">
-        <v>3.1</v>
+        <v>1.26</v>
       </c>
       <c r="R142" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S142" t="n">
-        <v>6.2</v>
+        <v>1.26</v>
       </c>
       <c r="T142" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="U142" t="n">
         <v>1.01</v>
       </c>
       <c r="V142" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="W142" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="X142" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y142" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z142" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA142" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB142" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC142" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD142" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE142" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF142" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG142" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH142" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI142" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ142" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK142" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL142" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM142" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AN142" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO142" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -19688,60 +19688,60 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Univ Catolica (Ecu)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Barcelona (Ecu)</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="G143" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H143" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I143" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J143" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="K143" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L143" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M143" t="n">
         <v>1.01</v>
       </c>
       <c r="N143" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="O143" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P143" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.26</v>
+        <v>1.72</v>
       </c>
       <c r="R143" t="n">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="S143" t="n">
-        <v>1.26</v>
+        <v>2.66</v>
       </c>
       <c r="T143" t="n">
         <v>1.01</v>
@@ -19750,10 +19750,10 @@
         <v>1.01</v>
       </c>
       <c r="V143" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="W143" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="X143" t="n">
         <v>1000</v>
@@ -19813,7 +19813,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -19828,67 +19828,67 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Univ Catolica (Ecu)</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Barcelona (Ecu)</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="G144" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J144" t="n">
         <v>3.35</v>
       </c>
-      <c r="I144" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K144" t="n">
-        <v>4.8</v>
+        <v>950</v>
       </c>
       <c r="L144" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M144" t="n">
         <v>1.01</v>
       </c>
       <c r="N144" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="O144" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P144" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S144" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W144" t="n">
         <v>1.72</v>
-      </c>
-      <c r="R144" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S144" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T144" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U144" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V144" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W144" t="n">
-        <v>1.98</v>
       </c>
       <c r="X144" t="n">
         <v>1000</v>
@@ -19948,7 +19948,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -19963,31 +19963,31 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>1.38</v>
@@ -19996,22 +19996,22 @@
         <v>1.01</v>
       </c>
       <c r="N145" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="O145" t="n">
         <v>1.29</v>
       </c>
       <c r="P145" t="n">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="Q145" t="n">
         <v>1.29</v>
       </c>
       <c r="R145" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S145" t="n">
-        <v>2.92</v>
+        <v>1.29</v>
       </c>
       <c r="T145" t="n">
         <v>1.01</v>
@@ -20020,10 +20020,10 @@
         <v>1.01</v>
       </c>
       <c r="V145" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W145" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="X145" t="n">
         <v>1000</v>
@@ -20083,7 +20083,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -20093,60 +20093,60 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="L146" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M146" t="n">
         <v>1.01</v>
       </c>
       <c r="N146" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="O146" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P146" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="R146" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S146" t="n">
-        <v>1.29</v>
+        <v>3.15</v>
       </c>
       <c r="T146" t="n">
         <v>1.01</v>
@@ -20155,10 +20155,10 @@
         <v>1.01</v>
       </c>
       <c r="V146" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W146" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="X146" t="n">
         <v>1000</v>
@@ -20218,7 +20218,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -20233,127 +20233,127 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O147" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P147" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="R147" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S147" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T147" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="U147" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V147" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W147" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X147" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y147" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z147" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA147" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB147" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC147" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD147" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE147" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF147" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG147" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH147" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI147" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ147" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK147" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL147" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM147" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN147" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO147" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -20368,55 +20368,55 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1.31</v>
+        <v>2.12</v>
       </c>
       <c r="G148" t="n">
-        <v>1.43</v>
+        <v>2.64</v>
       </c>
       <c r="H148" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="I148" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="J148" t="n">
-        <v>4.5</v>
+        <v>2.62</v>
       </c>
       <c r="K148" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="L148" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="M148" t="n">
         <v>1.01</v>
       </c>
       <c r="N148" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="O148" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P148" t="n">
         <v>1.25</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.31</v>
+        <v>2.92</v>
       </c>
       <c r="R148" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="S148" t="n">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="T148" t="n">
         <v>1.01</v>
@@ -20425,13 +20425,13 @@
         <v>1.01</v>
       </c>
       <c r="V148" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W148" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="X148" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y148" t="n">
         <v>1000</v>
@@ -20488,7 +20488,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -20503,127 +20503,127 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Union Espanola</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.26</v>
+        <v>1.09</v>
       </c>
       <c r="G149" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="H149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I149" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K149" t="n">
+        <v>980</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N149" t="n">
         <v>3.6</v>
       </c>
-      <c r="I149" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J149" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K149" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0</v>
-      </c>
-      <c r="M149" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0</v>
-      </c>
       <c r="O149" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P149" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.36</v>
+        <v>1.69</v>
       </c>
       <c r="R149" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S149" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T149" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="U149" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V149" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W149" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X149" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y149" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z149" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA149" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB149" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC149" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD149" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE149" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF149" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG149" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH149" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI149" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ149" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK149" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL149" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM149" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN149" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO149" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -20633,126 +20633,261 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Union Espanola</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="G150" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="H150" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K150" t="n">
+        <v>980</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S150" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I151" t="n">
         <v>3.3</v>
       </c>
-      <c r="I150" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J150" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K150" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0</v>
-      </c>
-      <c r="P150" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R150" t="n">
-        <v>0</v>
-      </c>
-      <c r="S150" t="n">
-        <v>0</v>
-      </c>
-      <c r="T150" t="n">
-        <v>0</v>
-      </c>
-      <c r="U150" t="n">
-        <v>0</v>
-      </c>
-      <c r="V150" t="n">
-        <v>0</v>
-      </c>
-      <c r="W150" t="n">
-        <v>0</v>
-      </c>
-      <c r="X150" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y150" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO150" t="n">
-        <v>0</v>
+      <c r="J151" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K151" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P151" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S151" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V151" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
